--- a/files/ConfigTable.xlsx
+++ b/files/ConfigTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HextrudORT\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32428E7-CF83-4CFD-89E8-0B200F7DD82B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D771C26-F2C1-4536-B105-DAAE8C8400CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{038A3362-ED86-4E09-BC72-C741E6598887}"/>
   </bookViews>
@@ -258,36 +258,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -614,7 +614,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,78 +629,78 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
